--- a/06-03-2023/data/output/xlsx/Causality for Category/13.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/13.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
@@ -199,7 +196,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -241,7 +238,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -283,7 +280,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -322,7 +319,7 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/13.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/13.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -61,15 +61,27 @@
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
@@ -115,21 +127,39 @@
     <t>num_of_decimals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
@@ -202,27 +232,51 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
@@ -244,15 +298,27 @@
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
@@ -289,15 +355,27 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
@@ -325,7 +403,13 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
@@ -443,7 +527,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,14 +535,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3CBBE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3CBBE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3CBBE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3CBBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,19 +604,55 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$5</c:f>
+              <c:f>AddsSubs!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$5</c:f>
+              <c:f>AddsSubs!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01021450459652707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.009685230024213076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01294498381877023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02531645569620253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -572,7 +708,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 13</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -636,19 +772,43 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$5</c:f>
+              <c:f>MultsDivs!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$5</c:f>
+              <c:f>MultsDivs!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0267379679144385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02112676056338028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02150537634408602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0136986301369863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -704,7 +864,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 13</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -768,19 +928,67 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$5</c:f>
+              <c:f>Equations!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$5</c:f>
+              <c:f>Equations!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01103309929789368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01109989909182644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01669758812615955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02325581395348837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03431372549019608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04411764705882353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03260869565217391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01851851851851852</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -836,7 +1044,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 13</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -900,19 +1108,61 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$5</c:f>
+              <c:f>Decimals!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$5</c:f>
+              <c:f>Decimals!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.009646302250803859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01219512195121951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01643835616438356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02371541501976284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02994011976047904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01176470588235294</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -968,7 +1218,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 13</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1032,19 +1282,49 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$5</c:f>
+              <c:f>Unknowns!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$5</c:f>
+              <c:f>Unknowns!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01102204408817635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01610541727672035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07368421052631578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08695652173913043</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1100,7 +1380,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 13</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1164,19 +1444,31 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$5</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$5</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01256281407035176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01273885350318471</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1232,7 +1524,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 13</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1798,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.01021450459652707</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1819,10 +2111,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>0.009685230024213076</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1840,19 +2132,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.01294498381877023</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.01113526736423862</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -1861,19 +2155,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.01089529438955377</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -1882,19 +2178,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.01124724431213076</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -1903,19 +2201,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.006411679584635083</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -1927,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -1936,7 +2236,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -1948,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -1957,7 +2257,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -1969,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -1978,7 +2278,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -1990,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
@@ -1999,7 +2299,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2011,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -2020,7 +2320,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2032,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -2041,7 +2341,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2053,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2062,7 +2362,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2074,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -2083,7 +2383,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2095,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -2104,7 +2404,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2116,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2125,7 +2425,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2137,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -2146,7 +2446,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2158,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -2167,7 +2467,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2179,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -2188,7 +2488,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2197,10 +2497,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
@@ -2209,7 +2509,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2218,19 +2518,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.009320481305523771</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2239,19 +2541,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.01643835616438356</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.004767819109096989</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2260,19 +2564,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.01067696200401335</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2281,19 +2587,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.01644845204923151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2302,19 +2610,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.001164423182008942</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2323,19 +2633,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-0.01920412812556313</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2347,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -2356,7 +2668,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2368,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
@@ -2377,7 +2689,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2389,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -2398,7 +2710,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2410,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -2419,7 +2731,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2431,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -2440,7 +2752,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2452,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2461,7 +2773,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2473,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2482,7 +2794,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2494,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -2503,7 +2815,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2515,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -2524,7 +2836,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2536,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -2545,7 +2857,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2557,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -2566,7 +2878,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2578,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -2587,7 +2899,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2599,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -2608,7 +2920,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2620,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -2629,7 +2941,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2641,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -2650,7 +2962,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2662,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -2671,7 +2983,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2683,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -2692,7 +3004,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -2704,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -2713,7 +3025,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -2725,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -2734,7 +3046,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2746,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -2755,7 +3067,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2767,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -2776,7 +3088,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -2788,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -2797,7 +3109,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -2809,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -2818,7 +3130,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -2827,19 +3139,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>0.01103309929789368</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.02718321959913237</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -2848,19 +3162,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.01109989909182644</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.02724468100331703</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -2869,19 +3185,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.01669758812615955</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.02852049015485423</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -2890,19 +3208,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.02907391979754316</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -2911,19 +3231,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.03272455683355021</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -2932,19 +3254,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.03874654624521225</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -2953,19 +3277,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.01107465931006617</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -2974,19 +3300,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-0.0139806198546061</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -2998,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -3007,7 +3335,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3019,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -3028,7 +3356,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3040,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -3049,7 +3377,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3061,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -3070,7 +3398,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3082,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -3091,7 +3419,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3103,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -3112,7 +3440,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3121,19 +3449,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.01502747690898842</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3142,19 +3472,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-0.004474316790363413</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3163,19 +3495,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-0.001275485801434303</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3184,19 +3518,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="1">
+        <v>-0.01358573319201037</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3208,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
@@ -3217,7 +3553,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3229,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
@@ -3238,7 +3574,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3250,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
@@ -3259,7 +3595,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3271,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
@@ -3280,7 +3616,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3292,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
@@ -3301,7 +3637,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3313,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
@@ -3322,7 +3658,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3334,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3343,7 +3679,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3355,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3364,7 +3700,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3376,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -3385,7 +3721,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3397,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -3406,7 +3742,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3415,10 +3751,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -3427,7 +3763,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3436,19 +3772,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.01610541727672035</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.03687888602541646</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3457,19 +3795,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.05980063146350947</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3478,19 +3818,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.03862557520731048</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3499,19 +3841,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.04455957844427599</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3523,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
@@ -3532,7 +3876,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3544,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
@@ -3553,7 +3897,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3565,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -3574,7 +3918,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3586,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -3595,7 +3939,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3607,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -3616,7 +3960,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3628,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -3637,7 +3981,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -3649,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -3658,7 +4002,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3670,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -3679,7 +4023,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -3688,19 +4032,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93" s="1">
+        <v>-0.07073230887741069</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -3709,19 +4055,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-0.03635875844015695</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -3733,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
@@ -3742,7 +4090,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -3754,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
@@ -3763,7 +4111,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -3775,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
@@ -3784,7 +4132,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -3796,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
@@ -3805,7 +4153,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -3817,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
@@ -3826,7 +4174,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -3838,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -3847,7 +4195,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -3859,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -3868,7 +4216,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -3880,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -3889,7 +4237,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -3901,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -3910,7 +4258,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -3922,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -3931,7 +4279,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -3943,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -3952,7 +4300,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -3964,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -3973,7 +4321,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -3985,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0</v>
+        <v>0.01102204408817635</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -3999,7 +4347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4010,7 +4358,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4033,25 +4381,283 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>979</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01021450459652707</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.000807539491649285</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>826</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.009685230024213076</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.001336814063963278</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01294498381877023</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.001922939730593874</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.004129471063338799</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.008025574959442696</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01429441160802618</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4073,7 +4679,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4096,25 +4702,197 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3">
+        <v>187</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0267379679144385</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.01571592382626215</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.02112676056338028</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.01010471647520393</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.02150537634408602</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01048333225590967</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.002676586048809947</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +4903,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4136,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4159,25 +4937,369 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3">
+        <v>997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01103309929789368</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.105520971732797E-05</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3">
+        <v>991</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01109989909182644</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.785500365008538E-05</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01669758812615955</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.005675544037983201</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01223376986531202</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.03431372549019608</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.02329168140201973</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.03309560297064718</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.03260869565217391</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.02158665156399756</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.007496474430342164</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +5310,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4199,7 +5321,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4222,25 +5344,326 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.009646302250803859</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.001375741837372494</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01219512195121951</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.001173077863043159</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.005416312076207207</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02371541501976284</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01269337093158649</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.02994011976047904</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.01891807567230269</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01278747972134745</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0007426617941765877</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +5674,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4262,7 +5685,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4285,25 +5708,240 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3">
+        <v>998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3">
+        <v>683</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01610541727672035</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.005083373188543999</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.07368421052631578</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.06266216643813943</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.06590103283490058</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.07593447765095408</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +5952,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4325,7 +5963,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4348,25 +5986,111 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="3">
+        <v>398</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01256281407035176</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.001540769982175406</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="3">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01273885350318471</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01102204408817635</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.001716809415008361</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
